--- a/02-时间跟踪/04月[每日时间开支].xlsx
+++ b/02-时间跟踪/04月[每日时间开支].xlsx
@@ -68,11 +68,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -120,6 +120,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -128,6 +149,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -136,12 +196,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -152,23 +212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -183,26 +228,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,35 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -263,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +454,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,23 +490,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +501,26 @@
       <top/>
       <bottom style="thick">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +542,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
@@ -541,25 +550,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,149 +571,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,9 +745,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1119,11 +1116,11 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30:B31"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1166,26 +1163,26 @@
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="15">
+      <c r="J1" s="14">
         <v>43407</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14">
         <v>43408</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14">
         <v>43409</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14">
         <v>43410</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14">
         <v>43411</v>
       </c>
-      <c r="S1" s="15"/>
+      <c r="S1" s="14"/>
     </row>
     <row r="2" customHeight="1" spans="2:19">
       <c r="B2" s="8" t="s">
@@ -1245,13 +1242,13 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1"/>
@@ -1280,346 +1277,319 @@
       <c r="A4" s="2">
         <v>0.291666666666667</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="12"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="12"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="12"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A5" s="2">
         <v>0.3125</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="12"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="12"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="12"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="2">
         <v>0.333333333333333</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="2">
         <v>0.354166666666667</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="2">
         <v>0.333333333333333</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A9" s="2">
         <v>0.354166666666667</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="12"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="12"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="12"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A10" s="2">
         <v>0.375</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="4"/>
-      <c r="J10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="12"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="12"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="2">
         <v>0.395833333333333</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A12" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="4"/>
-      <c r="J12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="12"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="12"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="12"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:18">
       <c r="A13" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" customHeight="1" spans="1:18">
       <c r="A14" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="1:18">
       <c r="A15" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:18">
       <c r="A16" s="2">
         <v>0.5</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="2">
         <v>0.520833333333333</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="2">
         <v>0.541666666666667</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:18">
       <c r="A21" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="2">
@@ -1665,13 +1635,13 @@
       <c r="A30" s="2">
         <v>0.791666666666667</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" customHeight="1" spans="1:1">
       <c r="A32" s="2">
@@ -1707,13 +1677,13 @@
       <c r="A38" s="2">
         <v>0.958333333333333</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="13"/>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="2">
         <v>0.979166666666667</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
